--- a/Wine_Quality/outputs/train_90_test_10/depth_5/wq_train_90_test_10_depth_5_report.xlsx
+++ b/Wine_Quality/outputs/train_90_test_10/depth_5/wq_train_90_test_10_depth_5_report.xlsx
@@ -458,58 +458,58 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>High quality</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.6612903225806451</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.3203125</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.4315789473684211</v>
       </c>
       <c r="E2" t="n">
-        <v>24</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Low quality</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8159722222222222</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9437751004016064</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8752327746741154</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>498</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>Standard quality</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6081081081081081</v>
+        <v>0.8129251700680272</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3515625</v>
+        <v>0.9598393574297188</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4455445544554456</v>
+        <v>0.8802946593001841</v>
       </c>
       <c r="E4" t="n">
-        <v>128</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7923076923076923</v>
+        <v>0.7984615384615384</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7923076923076923</v>
+        <v>0.7984615384615384</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7923076923076923</v>
+        <v>0.7984615384615384</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7923076923076923</v>
+        <v>0.7984615384615384</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4746934434434434</v>
+        <v>0.4914051642162241</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4317792001338688</v>
+        <v>0.4267172858099063</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4402591097098537</v>
+        <v>0.4372912022228684</v>
       </c>
       <c r="E6" t="n">
         <v>650</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7449107761607763</v>
+        <v>0.7530490707449232</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7923076923076923</v>
+        <v>0.7984615384615384</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7583009611661639</v>
+        <v>0.7594289932225379</v>
       </c>
       <c r="E7" t="n">
         <v>650</v>

--- a/Wine_Quality/outputs/train_90_test_10/depth_5/wq_train_90_test_10_depth_5_report.xlsx
+++ b/Wine_Quality/outputs/train_90_test_10/depth_5/wq_train_90_test_10_depth_5_report.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6612903225806451</v>
+        <v>0.66</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3203125</v>
+        <v>0.32</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4315789473684211</v>
+        <v>0.43</v>
       </c>
       <c r="E2" t="n">
         <v>128</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8129251700680272</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9598393574297188</v>
+        <v>0.96</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8802946593001841</v>
+        <v>0.88</v>
       </c>
       <c r="E4" t="n">
         <v>498</v>
@@ -518,17 +518,13 @@
           <t>accuracy</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.7984615384615384</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7984615384615384</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>0.7984615384615384</v>
+        <v>0.8</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7984615384615384</v>
+        <v>650</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +534,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4914051642162241</v>
+        <v>0.49</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4267172858099063</v>
+        <v>0.43</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4372912022228684</v>
+        <v>0.44</v>
       </c>
       <c r="E6" t="n">
         <v>650</v>
@@ -557,13 +553,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7530490707449232</v>
+        <v>0.75</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7984615384615384</v>
+        <v>0.8</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7594289932225379</v>
+        <v>0.76</v>
       </c>
       <c r="E7" t="n">
         <v>650</v>
